--- a/results/results_methods/icc_methods/icc_methods_results_071321.xlsx
+++ b/results/results_methods/icc_methods/icc_methods_results_071321.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhec8\Documents\Northwestern_SROP\AUT-Scoring\results\results_methods\icc_methods\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A2A79-1C1F-438F-A41D-B60F53E03CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5655" yWindow="2625" windowWidth="21480" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>ukwac_subtitles</t>
   </si>
@@ -101,13 +107,19 @@
   </si>
   <si>
     <t>[0.44 0.71]</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metrics </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,10 +171,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -170,6 +188,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -216,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,9 +274,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,6 +326,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,19 +519,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -489,15 +556,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6373939271950054</v>
+        <v>0.63739392719500543</v>
       </c>
       <c r="C3">
-        <v>2.757813713003612</v>
+        <v>2.7578137130036122</v>
       </c>
       <c r="D3">
         <v>86</v>
@@ -506,21 +573,21 @@
         <v>602</v>
       </c>
       <c r="F3">
-        <v>8.199060066166445E-13</v>
+        <v>8.1990600661664448E-13</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6373939271950054</v>
+        <v>0.63739392719500543</v>
       </c>
       <c r="C4">
-        <v>2.757813713003612</v>
+        <v>2.7578137130036122</v>
       </c>
       <c r="D4">
         <v>86</v>
@@ -529,21 +596,21 @@
         <v>602</v>
       </c>
       <c r="F4">
-        <v>8.199060066166445E-13</v>
+        <v>8.1990600661664448E-13</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6567081911828453</v>
+        <v>0.65670819118284529</v>
       </c>
       <c r="C5">
-        <v>2.91297366938523</v>
+        <v>2.9129736693852299</v>
       </c>
       <c r="D5">
         <v>86</v>
@@ -552,18 +619,18 @@
         <v>602</v>
       </c>
       <c r="F5">
-        <v>3.54966348536423E-14</v>
+        <v>3.5496634853642302E-14</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5123835564843151</v>
+        <v>0.51238355648431511</v>
       </c>
       <c r="C6">
         <v>2.050792202145729</v>
@@ -575,18 +642,18 @@
         <v>602</v>
       </c>
       <c r="F6">
-        <v>6.313674615160652E-07</v>
+        <v>6.3136746151606522E-7</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.5123835564843151</v>
+        <v>0.51238355648431511</v>
       </c>
       <c r="C7">
         <v>2.050792202145729</v>
@@ -598,18 +665,21 @@
         <v>602</v>
       </c>
       <c r="F7">
-        <v>6.313674615160652E-07</v>
+        <v>6.3136746151606522E-7</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -629,15 +699,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.5204614863814275</v>
+        <v>0.52046148638142753</v>
       </c>
       <c r="C11">
-        <v>2.085338239996726</v>
+        <v>2.0853382399967262</v>
       </c>
       <c r="D11">
         <v>86</v>
@@ -646,21 +716,21 @@
         <v>602</v>
       </c>
       <c r="F11">
-        <v>3.400447738988373E-07</v>
+        <v>3.4004477389883729E-7</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0.5204614863814275</v>
+        <v>0.52046148638142753</v>
       </c>
       <c r="C12">
-        <v>2.085338239996726</v>
+        <v>2.0853382399967262</v>
       </c>
       <c r="D12">
         <v>86</v>
@@ -669,21 +739,21 @@
         <v>602</v>
       </c>
       <c r="F12">
-        <v>3.400447738988373E-07</v>
+        <v>3.4004477389883729E-7</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0.5954041546161423</v>
+        <v>0.59540415461614227</v>
       </c>
       <c r="C13">
-        <v>2.471602245572385</v>
+        <v>2.4716022455723849</v>
       </c>
       <c r="D13">
         <v>86</v>
@@ -692,21 +762,21 @@
         <v>602</v>
       </c>
       <c r="F13">
-        <v>2.38133884541589E-10</v>
+        <v>2.3813388454158899E-10</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0.5403806012563399</v>
+        <v>0.54038060125633991</v>
       </c>
       <c r="C14">
-        <v>2.175713215615867</v>
+        <v>2.1757132156158669</v>
       </c>
       <c r="D14">
         <v>86</v>
@@ -715,21 +785,21 @@
         <v>602</v>
       </c>
       <c r="F14">
-        <v>6.554411199397358E-08</v>
+        <v>6.5544111993973576E-8</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0.5403806012563399</v>
+        <v>0.54038060125633991</v>
       </c>
       <c r="C15">
-        <v>2.175713215615867</v>
+        <v>2.1757132156158669</v>
       </c>
       <c r="D15">
         <v>86</v>
@@ -738,18 +808,21 @@
         <v>602</v>
       </c>
       <c r="F15">
-        <v>6.554411199397358E-08</v>
+        <v>6.5544111993973576E-8</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -769,15 +842,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.5560510594561365</v>
+        <v>0.55605105945613653</v>
       </c>
       <c r="C19">
-        <v>2.252511288291265</v>
+        <v>2.2525112882912648</v>
       </c>
       <c r="D19">
         <v>86</v>
@@ -786,21 +859,21 @@
         <v>602</v>
       </c>
       <c r="F19">
-        <v>1.572691917155778E-08</v>
+        <v>1.5726919171557782E-8</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B20">
-        <v>0.5560510594561365</v>
+        <v>0.55605105945613653</v>
       </c>
       <c r="C20">
-        <v>2.252511288291265</v>
+        <v>2.2525112882912648</v>
       </c>
       <c r="D20">
         <v>86</v>
@@ -809,13 +882,13 @@
         <v>602</v>
       </c>
       <c r="F20">
-        <v>1.572691917155778E-08</v>
+        <v>1.5726919171557782E-8</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -823,7 +896,7 @@
         <v>0.5014517443549239</v>
       </c>
       <c r="C21">
-        <v>2.005823887009876</v>
+        <v>2.0058238870098761</v>
       </c>
       <c r="D21">
         <v>86</v>
@@ -832,21 +905,21 @@
         <v>602</v>
       </c>
       <c r="F21">
-        <v>1.399577731246128E-06</v>
+        <v>1.399577731246128E-6</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22">
-        <v>0.5515462973669298</v>
+        <v>0.55154629736692984</v>
       </c>
       <c r="C22">
-        <v>2.229884588149362</v>
+        <v>2.2298845881493619</v>
       </c>
       <c r="D22">
         <v>86</v>
@@ -855,21 +928,21 @@
         <v>602</v>
       </c>
       <c r="F22">
-        <v>2.400885943054241E-08</v>
+        <v>2.4008859430542412E-8</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B23">
-        <v>0.5515462973669298</v>
+        <v>0.55154629736692984</v>
       </c>
       <c r="C23">
-        <v>2.229884588149362</v>
+        <v>2.2298845881493619</v>
       </c>
       <c r="D23">
         <v>86</v>
@@ -878,18 +951,21 @@
         <v>602</v>
       </c>
       <c r="F23">
-        <v>2.400885943054241E-08</v>
+        <v>2.4008859430542412E-8</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
@@ -909,15 +985,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B27">
-        <v>0.4910123653839539</v>
+        <v>0.49101236538395387</v>
       </c>
       <c r="C27">
-        <v>1.964684271267903</v>
+        <v>1.9646842712679029</v>
       </c>
       <c r="D27">
         <v>86</v>
@@ -926,21 +1002,21 @@
         <v>602</v>
       </c>
       <c r="F27">
-        <v>2.870495003067343E-06</v>
+        <v>2.870495003067343E-6</v>
       </c>
       <c r="G27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B28">
-        <v>0.4910123653839539</v>
+        <v>0.49101236538395387</v>
       </c>
       <c r="C28">
-        <v>1.964684271267903</v>
+        <v>1.9646842712679029</v>
       </c>
       <c r="D28">
         <v>86</v>
@@ -949,21 +1025,21 @@
         <v>602</v>
       </c>
       <c r="F28">
-        <v>2.870495003067343E-06</v>
+        <v>2.870495003067343E-6</v>
       </c>
       <c r="G28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B29">
-        <v>0.5522120733172188</v>
+        <v>0.55221207331721878</v>
       </c>
       <c r="C29">
-        <v>2.233200004761212</v>
+        <v>2.2332000047612119</v>
       </c>
       <c r="D29">
         <v>86</v>
@@ -972,13 +1048,13 @@
         <v>602</v>
       </c>
       <c r="F29">
-        <v>2.256866723110985E-08</v>
+        <v>2.2568667231109851E-8</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,7 +1062,7 @@
         <v>0.4927279817242744</v>
       </c>
       <c r="C30">
-        <v>1.971328920130686</v>
+        <v>1.9713289201306861</v>
       </c>
       <c r="D30">
         <v>86</v>
@@ -995,13 +1071,13 @@
         <v>602</v>
       </c>
       <c r="F30">
-        <v>2.557768817235568E-06</v>
+        <v>2.5577688172355681E-6</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1009,7 +1085,7 @@
         <v>0.4927279817242744</v>
       </c>
       <c r="C31">
-        <v>1.971328920130686</v>
+        <v>1.9713289201306861</v>
       </c>
       <c r="D31">
         <v>86</v>
@@ -1018,18 +1094,21 @@
         <v>602</v>
       </c>
       <c r="F31">
-        <v>2.557768817235568E-06</v>
+        <v>2.5577688172355681E-6</v>
       </c>
       <c r="G31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1049,12 +1128,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B35">
-        <v>0.5681127399292135</v>
+        <v>0.56811273992921352</v>
       </c>
       <c r="C35">
         <v>2.315419074496663</v>
@@ -1066,18 +1145,18 @@
         <v>602</v>
       </c>
       <c r="F35">
-        <v>4.801338046256385E-09</v>
+        <v>4.8013380462563854E-9</v>
       </c>
       <c r="G35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B36">
-        <v>0.5681127399292135</v>
+        <v>0.56811273992921352</v>
       </c>
       <c r="C36">
         <v>2.315419074496663</v>
@@ -1089,21 +1168,21 @@
         <v>602</v>
       </c>
       <c r="F36">
-        <v>4.801338046256385E-09</v>
+        <v>4.8013380462563854E-9</v>
       </c>
       <c r="G36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B37">
-        <v>0.5155562553591133</v>
+        <v>0.51555625535911331</v>
       </c>
       <c r="C37">
-        <v>2.064223165356981</v>
+        <v>2.0642231653569811</v>
       </c>
       <c r="D37">
         <v>86</v>
@@ -1112,21 +1191,21 @@
         <v>602</v>
       </c>
       <c r="F37">
-        <v>4.967233513425635E-07</v>
+        <v>4.9672335134256347E-7</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B38">
-        <v>0.5891040888884228</v>
+        <v>0.58910408888842281</v>
       </c>
       <c r="C38">
-        <v>2.433706379055336</v>
+        <v>2.4337063790553359</v>
       </c>
       <c r="D38">
         <v>86</v>
@@ -1135,21 +1214,21 @@
         <v>602</v>
       </c>
       <c r="F38">
-        <v>4.970078575947778E-10</v>
+        <v>4.9700785759477778E-10</v>
       </c>
       <c r="G38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B39">
-        <v>0.5891040888884228</v>
+        <v>0.58910408888842281</v>
       </c>
       <c r="C39">
-        <v>2.433706379055336</v>
+        <v>2.4337063790553359</v>
       </c>
       <c r="D39">
         <v>86</v>
@@ -1158,7 +1237,7 @@
         <v>602</v>
       </c>
       <c r="F39">
-        <v>4.970078575947778E-10</v>
+        <v>4.9700785759477778E-10</v>
       </c>
       <c r="G39" t="s">
         <v>28</v>
@@ -1166,5 +1245,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>